--- a/World Bank Data/GDP.xlsx
+++ b/World Bank Data/GDP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14553C2-9D05-4DED-A538-142371E17C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="1440" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +14,1190 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>Korea Rep</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>Iran Islamic Rep</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Venezuela RB</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR China</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>Egypt Arab Rep</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Macao SAR China</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>Yemen Rep</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>Côte dIvoire</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>Congo Dem Rep</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>Congo Rep</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>WBG</t>
+  </si>
+  <si>
+    <t>West Bank and Gaza</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>Macedonia FYR</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>Bahamas The</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>KSV</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>ADO</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>St Lucia</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>Gambia The</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>St Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>St Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>STM Principe</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>Micronesia Fed Sts</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +1234,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +1288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +1321,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +1373,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +1565,2746 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>17419000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>10354832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>4601461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3868291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2988893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2829192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2346076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>2141161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>2048517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>1860598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1785387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>1454675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>1410383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>1381342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>1294690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>888538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>879319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>798429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>746249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>701037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>571090</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>568508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>544967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>537660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>531547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>499817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>436888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>425326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>404824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>399451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>381286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>377740</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>350085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>342362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>338104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>307860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>305675</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>290896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>286538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>284777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42">
+        <v>272217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43">
+        <v>258062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <v>250814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45">
+        <v>243632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46">
+        <v>235574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>230117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48">
+        <v>223508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49">
+        <v>217872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50">
+        <v>213518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51">
+        <v>210109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52">
+        <v>205270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53">
+        <v>202596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54">
+        <v>199970</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55">
+        <v>199044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56">
+        <v>186205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57">
+        <v>172887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58">
+        <v>163612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59">
+        <v>138357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60">
+        <v>138347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61">
+        <v>131805</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62">
+        <v>110009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63">
+        <v>103135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64">
+        <v>100917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65">
+        <v>100249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66">
+        <v>81797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67">
+        <v>78824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68">
+        <v>77150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69">
+        <v>76139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70">
+        <v>75198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71">
+        <v>73815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72">
+        <v>64874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73">
+        <v>64330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74">
+        <v>64138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75">
+        <v>62644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76">
+        <v>60937</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77">
+        <v>58827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78">
+        <v>57471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79">
+        <v>57113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80">
+        <v>56717</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81">
+        <v>55612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82">
+        <v>55502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83">
+        <v>49553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84">
+        <v>49491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85">
+        <v>48613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86">
+        <v>48354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87">
+        <v>48057</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88">
+        <v>47932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89">
+        <v>46213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92">
+        <v>41143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93">
+        <v>38617</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94">
+        <v>35955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95">
+        <v>35827</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96">
+        <v>34254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97">
+        <v>33851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98">
+        <v>33121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99">
+        <v>32996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100">
+        <v>32051</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101">
+        <v>31287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102">
+        <v>30881</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103">
+        <v>28883</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104">
+        <v>27066</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105">
+        <v>26998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107">
+        <v>25164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108">
+        <v>23226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109">
+        <v>20038</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110">
+        <v>19770</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111">
+        <v>19385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112">
+        <v>18286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113">
+        <v>18180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114">
+        <v>17105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115">
+        <v>17036</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>233</v>
+      </c>
+      <c r="D116">
+        <v>16929</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117">
+        <v>16778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118">
+        <v>16530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119">
+        <v>15938</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120">
+        <v>15813</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121">
+        <v>15658</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122">
+        <v>15530</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123">
+        <v>14197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124">
+        <v>14177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125">
+        <v>13922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126">
+        <v>13891</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127">
+        <v>13282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>257</v>
+      </c>
+      <c r="D128">
+        <v>13212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>259</v>
+      </c>
+      <c r="D129">
+        <v>12995</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>261</v>
+      </c>
+      <c r="D130">
+        <v>12738</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>263</v>
+      </c>
+      <c r="D131">
+        <v>12630</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>265</v>
+      </c>
+      <c r="D132">
+        <v>12542</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>267</v>
+      </c>
+      <c r="D133">
+        <v>12037</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135">
+        <v>11997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>273</v>
+      </c>
+      <c r="D136">
+        <v>11806</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>275</v>
+      </c>
+      <c r="D137">
+        <v>11644</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>277</v>
+      </c>
+      <c r="D138">
+        <v>11324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139">
+        <v>10593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>281</v>
+      </c>
+      <c r="D140">
+        <v>9643</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>283</v>
+      </c>
+      <c r="D141">
+        <v>9575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142">
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>287</v>
+      </c>
+      <c r="D143">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>289</v>
+      </c>
+      <c r="D144">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145">
+        <v>8169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>293</v>
+      </c>
+      <c r="D146">
+        <v>7962</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>295</v>
+      </c>
+      <c r="D147">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>297</v>
+      </c>
+      <c r="D148">
+        <v>7404</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>299</v>
+      </c>
+      <c r="D149">
+        <v>7387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>301</v>
+      </c>
+      <c r="D150">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>303</v>
+      </c>
+      <c r="D151">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>305</v>
+      </c>
+      <c r="D152">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>307</v>
+      </c>
+      <c r="D153">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>311</v>
+      </c>
+      <c r="D155">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>313</v>
+      </c>
+      <c r="D156">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>315</v>
+      </c>
+      <c r="D157">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>317</v>
+      </c>
+      <c r="D158">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>319</v>
+      </c>
+      <c r="D159">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>321</v>
+      </c>
+      <c r="D160">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>323</v>
+      </c>
+      <c r="D161">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>325</v>
+      </c>
+      <c r="D162">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>327</v>
+      </c>
+      <c r="D163">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>329</v>
+      </c>
+      <c r="D164">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>331</v>
+      </c>
+      <c r="D165">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>333</v>
+      </c>
+      <c r="D166">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>335</v>
+      </c>
+      <c r="D167">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>337</v>
+      </c>
+      <c r="D168">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>339</v>
+      </c>
+      <c r="D169">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>341</v>
+      </c>
+      <c r="D170">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>343</v>
+      </c>
+      <c r="D171">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>345</v>
+      </c>
+      <c r="D172">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>347</v>
+      </c>
+      <c r="D173">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>349</v>
+      </c>
+      <c r="D174">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>350</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>351</v>
+      </c>
+      <c r="D175">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>353</v>
+      </c>
+      <c r="D176">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>355</v>
+      </c>
+      <c r="D177">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>357</v>
+      </c>
+      <c r="D178">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>359</v>
+      </c>
+      <c r="D179">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>360</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>361</v>
+      </c>
+      <c r="D180">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>362</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>363</v>
+      </c>
+      <c r="D181">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>365</v>
+      </c>
+      <c r="D182">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="s">
+        <v>367</v>
+      </c>
+      <c r="D183">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="s">
+        <v>369</v>
+      </c>
+      <c r="D184">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="s">
+        <v>371</v>
+      </c>
+      <c r="D185">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="s">
+        <v>373</v>
+      </c>
+      <c r="D186">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>374</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="s">
+        <v>375</v>
+      </c>
+      <c r="D187">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="s">
+        <v>377</v>
+      </c>
+      <c r="D188">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>378</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>379</v>
+      </c>
+      <c r="D189">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>380</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>381</v>
+      </c>
+      <c r="D190">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>382</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>383</v>
+      </c>
+      <c r="D191">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>384</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>385</v>
+      </c>
+      <c r="D192">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>386</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>387</v>
+      </c>
+      <c r="D193">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>388</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>389</v>
+      </c>
+      <c r="D194">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>391</v>
+      </c>
+      <c r="D195">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>